--- a/imagenes_guardadas/prueba_firma.xlsx
+++ b/imagenes_guardadas/prueba_firma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba-firma\imagenes_guardadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\firma_acr\imagenes_guardadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CA7C3B-B769-422E-A529-2489A05011AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17C322B-4E14-4053-9FF1-B9AC6A6629A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A4F58DA-A499-4342-B7EA-C20A63C4C227}"/>
   </bookViews>
@@ -264,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -388,16 +388,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -411,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -498,60 +489,65 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1DAF3D-1E27-44D7-AC3D-F26EE6EF97FD}">
   <dimension ref="A2:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1017,25 +1013,25 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="10">
         <v>45672</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="50" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13" ht="7.5" customHeight="1">
       <c r="B8" s="12"/>
@@ -1043,19 +1039,19 @@
     </row>
     <row r="9" spans="1:13" ht="13.5">
       <c r="A9" s="9"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="48"/>
       <c r="K9" s="14"/>
       <c r="L9" s="9"/>
       <c r="M9" s="15"/>
@@ -1077,22 +1073,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="9"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
       <c r="A12" s="9"/>
@@ -1140,22 +1136,22 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="9"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="22"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="7.5" customHeight="1">
       <c r="B16" s="12"/>
@@ -1165,22 +1161,22 @@
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="H17" s="58" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59" t="s">
+      <c r="I17" s="44"/>
+      <c r="J17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="7.5" customHeight="1">
       <c r="B18" s="12"/>
@@ -1188,23 +1184,23 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="9"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="H19" s="58" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="H19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="1:13" ht="7.5" customHeight="1">
       <c r="B20" s="12"/>
@@ -1212,23 +1208,23 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="9"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="H21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1">
       <c r="B22" s="12"/>
@@ -1236,22 +1232,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="9"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
     </row>
     <row r="24" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
       <c r="A24" s="9"/>
@@ -1291,21 +1287,21 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="H27" s="44" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="H27" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="7.5" customHeight="1">
       <c r="A28" s="9"/>
@@ -1317,26 +1313,26 @@
     </row>
     <row r="29" spans="1:13" ht="13.5">
       <c r="A29" s="9"/>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="9"/>
       <c r="E29" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="9"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="54"/>
     </row>
     <row r="30" spans="1:13" ht="7.5" customHeight="1">
       <c r="B30" s="29"/>
@@ -1347,30 +1343,30 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="56"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:13" ht="13.5">
       <c r="A31" s="9"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="9"/>
       <c r="E31" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="9"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="56"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32" spans="1:13" ht="7.5" customHeight="1">
       <c r="B32" s="8"/>
@@ -1385,20 +1381,20 @@
     </row>
     <row r="33" spans="1:13" ht="13.5">
       <c r="A33" s="9"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="9"/>
       <c r="E33" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="9"/>
       <c r="K33" s="30"/>
       <c r="L33" s="9"/>
@@ -1417,17 +1413,17 @@
     </row>
     <row r="35" spans="1:13" ht="13.5">
       <c r="A35" s="9"/>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="9"/>
       <c r="E35" s="14"/>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="9"/>
       <c r="K35" s="30"/>
       <c r="L35" s="9"/>
@@ -1446,18 +1442,18 @@
     </row>
     <row r="37" spans="1:13" ht="13.5">
       <c r="A37" s="9"/>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="9"/>
       <c r="E37" s="14"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="9"/>
       <c r="K37" s="30"/>
       <c r="L37" s="19"/>
@@ -1817,26 +1813,27 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="19"/>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="L73" s="44" t="s">
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="L73" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="45"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="19"/>
-      <c r="B74" s="42"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
@@ -1844,31 +1841,31 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="L74" s="19"/>
-      <c r="M74" s="43"/>
+      <c r="M74" s="42"/>
     </row>
     <row r="75" spans="1:13" ht="12.75" customHeight="1">
-      <c r="B75" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="47"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="58"/>
       <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1">
       <c r="A76" s="19"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="56"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="L76" s="50" t="s">
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="L76" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="M76" s="51"/>
+      <c r="M76" s="46"/>
     </row>
     <row r="77" spans="1:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B77" s="35"/>
@@ -1889,7 +1886,32 @@
     </row>
     <row r="79" spans="1:13" ht="15.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:I19"/>
@@ -1906,30 +1928,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:I73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0.19685039370078741"/>
